--- a/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
+++ b/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shats\IdeaProjects\constructor-reductor\spring\ConstructorApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D2CA19-0983-405A-BD56-2339FD250C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81528435-E8AD-477C-9148-0DF0291F173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП" sheetId="1" r:id="rId1"/>
-    <sheet name="additional" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm_Print_Area" localSheetId="0">КП!$A$1:$K$56</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">КП!$A$1:$K$56</definedName>
+    <definedName name="__xlnm_Print_Area" localSheetId="0">КП!$A$1:$K$86</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">КП!$A$1:$K$86</definedName>
     <definedName name="FFF">NA()</definedName>
     <definedName name="GF">NA()</definedName>
     <definedName name="GFA">NA()</definedName>
@@ -58,7 +57,7 @@
     <definedName name="KKK">NA()</definedName>
     <definedName name="RRR">NA()</definedName>
     <definedName name="SSS">NA()</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">КП!$A$1:$K$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">КП!$A$1:$K$89</definedName>
     <definedName name="Типоразмеры">NA()</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -270,9 +269,6 @@
     <t>1. Условия оплаты:</t>
   </si>
   <si>
-    <t xml:space="preserve">   1.1 Первый платеж в размере 50% в течении 5 банковских дней с момента подписания Договора</t>
-  </si>
-  <si>
     <t xml:space="preserve">   1.3 Оплата производится в российских рублях по курсу ЦБ РФ на дату проведения оплаты.</t>
   </si>
   <si>
@@ -291,9 +287,6 @@
     <t>Данное предложение действительно в течение 5 дней!!</t>
   </si>
   <si>
-    <t>Лобов Сергей Анатольевич</t>
-  </si>
-  <si>
     <t xml:space="preserve">                               </t>
   </si>
   <si>
@@ -304,6 +297,18 @@
   </si>
   <si>
     <t>vneshpromtorg.com</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -544,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -557,21 +562,6 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="medium">
@@ -627,18 +617,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -648,7 +632,38 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -659,7 +674,117 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -670,10 +795,54 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -686,22 +855,20 @@
         <color indexed="8"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -710,54 +877,41 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -766,110 +920,30 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -877,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -933,168 +1007,231 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="16" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1403,13 +1540,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1474,13 +1611,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1545,13 +1682,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1616,13 +1753,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1687,13 +1824,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1758,13 +1895,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1829,13 +1966,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1900,13 +2037,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1971,13 +2108,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2042,13 +2179,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2113,13 +2250,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2184,13 +2321,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2255,13 +2392,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2326,13 +2463,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2397,13 +2534,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2468,13 +2605,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2539,13 +2676,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2610,13 +2747,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2681,13 +2818,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2752,13 +2889,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2823,13 +2960,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2894,13 +3031,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2965,13 +3102,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3036,13 +3173,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3107,13 +3244,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3178,13 +3315,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3249,13 +3386,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3320,13 +3457,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3391,13 +3528,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3462,13 +3599,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3533,13 +3670,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3604,13 +3741,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3675,13 +3812,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3746,13 +3883,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3817,13 +3954,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3888,13 +4025,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3959,13 +4096,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4030,13 +4167,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4101,13 +4238,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4172,13 +4309,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4243,13 +4380,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4308,275 +4445,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58447DA1-E10E-4328-A91F-F44214F5782F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="600075" y="17621250"/>
-          <a:ext cx="333375" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-                <a:srcRect/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="3465A4"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CED800-6627-4742-AAB1-03F0A36D98B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3533775" y="17611725"/>
-          <a:ext cx="323850" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-                <a:srcRect/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="3465A4"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6FAC49-E5FA-4717-8750-4A673C29A5F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9620250" y="17621250"/>
-          <a:ext cx="304800" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-                <a:srcRect/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="3465A4"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4967,10 +4835,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5025,8 +4893,8 @@
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
@@ -5038,15 +4906,15 @@
       <c r="I10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
         <v>8</v>
@@ -5056,624 +4924,1006 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="77"/>
+      <c r="E13" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="31" t="s">
+      <c r="J13" s="86"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="75"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="46" t="str">
+      <c r="I14" s="78" t="str">
         <f>H14</f>
         <v>Юань ¥</v>
       </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="62"/>
-      <c r="C16" s="15" t="s">
+      <c r="J14" s="87"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+    </row>
+    <row r="17" spans="2:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+    </row>
+    <row r="18" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+    </row>
+    <row r="20" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="98"/>
+    </row>
+    <row r="21" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+    </row>
+    <row r="22" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+    </row>
+    <row r="23" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+    </row>
+    <row r="24" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+    </row>
+    <row r="25" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+    </row>
+    <row r="26" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+    </row>
+    <row r="27" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+    </row>
+    <row r="28" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="101"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+    </row>
+    <row r="29" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="101"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+    </row>
+    <row r="30" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+    </row>
+    <row r="31" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="101"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+    </row>
+    <row r="32" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="101"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+    </row>
+    <row r="33" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="103"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+    </row>
+    <row r="34" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+    </row>
+    <row r="35" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="105"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+    </row>
+    <row r="36" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+    </row>
+    <row r="37" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="107"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+    </row>
+    <row r="38" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="101"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+    </row>
+    <row r="39" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="101"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+    </row>
+    <row r="40" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="40"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="41"/>
+      <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="62"/>
-      <c r="C17" s="16" t="s">
+      <c r="E44" s="64"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="55"/>
+    </row>
+    <row r="45" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="41"/>
+      <c r="C45" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="62"/>
-      <c r="C18" s="16" t="s">
+      <c r="D45" s="26"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="41"/>
+      <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
-      <c r="C19" s="16" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="55"/>
+    </row>
+    <row r="47" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="41"/>
+      <c r="C47" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-    </row>
-    <row r="24" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="62"/>
-      <c r="C24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-    </row>
-    <row r="25" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-    </row>
-    <row r="26" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-    </row>
-    <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-    </row>
-    <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-    </row>
-    <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
-      <c r="C29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-    </row>
-    <row r="31" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-    </row>
-    <row r="32" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="62"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-    </row>
-    <row r="33" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="62"/>
-      <c r="C34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-    </row>
-    <row r="35" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="62"/>
-      <c r="C35" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-    </row>
-    <row r="36" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="62"/>
-      <c r="C36" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="62"/>
-      <c r="C37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-    </row>
-    <row r="38" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="62"/>
-      <c r="C38" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-    </row>
-    <row r="39" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="62"/>
-      <c r="C39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-    </row>
-    <row r="40" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="62"/>
-      <c r="C40" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-    </row>
-    <row r="41" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="62"/>
-      <c r="C41" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="62"/>
-      <c r="C42" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-    </row>
-    <row r="44" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="62"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-    </row>
-    <row r="45" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="64"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="59"/>
-    </row>
-    <row r="46" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="65"/>
-      <c r="C46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="61"/>
-    </row>
-    <row r="47" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="65"/>
-      <c r="C47" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="61"/>
-    </row>
-    <row r="48" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="65"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="55"/>
+    </row>
+    <row r="48" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="41"/>
       <c r="C48" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="61"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="55"/>
     </row>
     <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="65"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="55"/>
+    </row>
+    <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="41"/>
+      <c r="C50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="64"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="55"/>
+    </row>
+    <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="41"/>
+      <c r="C51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="64"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="55"/>
+    </row>
+    <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="41"/>
+      <c r="C52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="61"/>
-    </row>
-    <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="65"/>
-      <c r="C50" s="16" t="s">
+      <c r="D52" s="18"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="55"/>
+    </row>
+    <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="41"/>
+      <c r="C53" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="61"/>
-    </row>
-    <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="65"/>
-      <c r="C51" s="16" t="s">
+      <c r="D53" s="18"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="55"/>
+    </row>
+    <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="41"/>
+      <c r="C54" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="53"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="61"/>
-    </row>
-    <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="65"/>
-      <c r="C52" s="16" t="s">
+      <c r="E54" s="64"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="55"/>
+    </row>
+    <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="41"/>
+      <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="61"/>
-    </row>
-    <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="65"/>
-      <c r="C53" s="16" t="s">
+      <c r="D55" s="18"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="55"/>
+    </row>
+    <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="41"/>
+      <c r="C56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="61"/>
-    </row>
-    <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="65"/>
-      <c r="C54" s="16" t="s">
+      <c r="D56" s="18"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="55"/>
+    </row>
+    <row r="57" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="41"/>
+      <c r="C57" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="55"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="41"/>
+      <c r="C58" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="61"/>
-    </row>
-    <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="65"/>
-      <c r="C55" s="16" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="55"/>
+    </row>
+    <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="41"/>
+      <c r="C59" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="61"/>
-    </row>
-    <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="65"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="61"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-    </row>
+      <c r="D59" s="31"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="55"/>
+    </row>
+    <row r="60" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="41"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="55"/>
+    </row>
+    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+    </row>
+    <row r="62" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="40"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="53"/>
+    </row>
+    <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="41"/>
+      <c r="C63" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="64"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="55"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="41"/>
+      <c r="C64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="55"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="41"/>
+      <c r="C65" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="55"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="41"/>
+      <c r="C66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="55"/>
+    </row>
+    <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="41"/>
+      <c r="C67" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="55"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="41"/>
+      <c r="C68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="64"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="55"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="41"/>
+      <c r="C69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="64"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="55"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="41"/>
+      <c r="C70" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="55"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="41"/>
+      <c r="C71" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="55"/>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="41"/>
+      <c r="C72" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="55"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="41"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="55"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+    </row>
+    <row r="75" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="42"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="53"/>
+    </row>
+    <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="43"/>
+      <c r="C76" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="47"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="55"/>
+    </row>
+    <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="43"/>
+      <c r="C77" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="55"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="43"/>
+      <c r="C78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="55"/>
+    </row>
+    <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="43"/>
+      <c r="C79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="55"/>
+    </row>
+    <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="43"/>
+      <c r="C80" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
+    </row>
+    <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="43"/>
+      <c r="C81" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="47"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="55"/>
+    </row>
+    <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="43"/>
+      <c r="C82" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="55"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="43"/>
+      <c r="C83" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="55"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="43"/>
+      <c r="C84" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="55"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="43"/>
+      <c r="C85" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="31"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="55"/>
+    </row>
+    <row r="86" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="43"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="55"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="27"/>
+      <c r="C87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+    </row>
+    <row r="98" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="23">
-    <mergeCell ref="B15:B32"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="E33:G44"/>
-    <mergeCell ref="H33:H44"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I33:J44"/>
-    <mergeCell ref="E45:G56"/>
-    <mergeCell ref="H45:H56"/>
-    <mergeCell ref="I45:J56"/>
-    <mergeCell ref="E15:G32"/>
-    <mergeCell ref="H15:H32"/>
-    <mergeCell ref="I15:J32"/>
+  <mergeCells count="38">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="C11:E11"/>
@@ -5682,504 +5932,55 @@
     <mergeCell ref="E13:G14"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G60"/>
+    <mergeCell ref="H43:H60"/>
+    <mergeCell ref="I43:J60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="E62:G73"/>
+    <mergeCell ref="H62:H73"/>
+    <mergeCell ref="I62:J73"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="E75:G86"/>
+    <mergeCell ref="H75:H86"/>
+    <mergeCell ref="I75:J86"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C75:D75"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Руб.₽,Доллар $,Евро €,Юань ¥,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D27 D25 D41:D44" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D51 D26" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D55 D53 D70:D73 B35" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D81 D54" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D19 D23:D24 D36 D40 D48:D50 D52" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D47 D51:D52 D65 D69 D78:D80 D82" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D22 D39" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D50 D68" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B41" r:id="rId1" xr:uid="{D16D82B0-871C-4F0B-8E76-B9CB92CF0390}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="3" max="1048575" man="1"/>
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="e">
-        <f>КП!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="79" t="e">
-        <f>I2/6</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="73" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="80" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="80" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="25" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="17">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B22" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"#ref!"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12ffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12ffffffСтраница &amp;P</oddFooter>
-  </headerFooter>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
+++ b/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shats\IdeaProjects\constructor-reductor\spring\ConstructorApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81528435-E8AD-477C-9148-0DF0291F173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E377EF41-935F-4827-B997-E74AC86BC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП" sheetId="1" r:id="rId1"/>
@@ -951,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1017,12 +1017,6 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,190 +1025,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1223,14 +1040,194 @@
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4837,8 +4834,8 @@
   </sheetPr>
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,8 +4890,8 @@
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
@@ -4906,15 +4903,15 @@
       <c r="I10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
         <v>8</v>
@@ -4925,9 +4922,9 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
@@ -4936,80 +4933,80 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="80" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="33" t="s">
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="86"/>
+      <c r="J13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="75"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="34" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="78" t="str">
+      <c r="I14" s="63" t="str">
         <f>H14</f>
         <v>Юань ¥</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="2:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
     </row>
     <row r="18" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
@@ -5023,281 +5020,281 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="101"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="101"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="101"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="101"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="103"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="107"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="101"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="101"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40"/>
@@ -5316,578 +5313,578 @@
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="40"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="53"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="86"/>
     </row>
     <row r="44" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="55"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="88"/>
     </row>
     <row r="45" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="26"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="55"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="88"/>
     </row>
     <row r="46" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="55"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="88"/>
     </row>
     <row r="47" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="55"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="88"/>
     </row>
     <row r="48" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="55"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="88"/>
     </row>
     <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
+      <c r="B49" s="74"/>
       <c r="C49" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="20"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="55"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="88"/>
     </row>
     <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="55"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="88"/>
     </row>
     <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="55"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="88"/>
     </row>
     <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="18"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="55"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="88"/>
     </row>
     <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="18"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="55"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="88"/>
     </row>
     <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="55"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="88"/>
     </row>
     <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="41"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="55"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="88"/>
     </row>
     <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
+      <c r="B56" s="74"/>
       <c r="C56" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="55"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="88"/>
     </row>
     <row r="57" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="55"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="88"/>
     </row>
     <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="74"/>
       <c r="C58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="55"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="88"/>
     </row>
     <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="74"/>
       <c r="C59" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="55"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="88"/>
     </row>
     <row r="60" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="55"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="88"/>
     </row>
     <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="35"/>
-      <c r="C61" s="36"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="30"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="89"/>
       <c r="H61" s="30"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
     </row>
     <row r="62" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="40"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="53"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="86"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="64"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="55"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="88"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="65"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="55"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="88"/>
     </row>
     <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="74"/>
       <c r="C65" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="19"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="55"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="88"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="55"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="88"/>
     </row>
     <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="18"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="55"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="87"/>
+      <c r="J67" s="88"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="41"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="64"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="55"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="88"/>
     </row>
     <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
+      <c r="B69" s="74"/>
       <c r="C69" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="64"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="55"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="88"/>
     </row>
     <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="55"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="88"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="55"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="88"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="69"/>
-      <c r="J72" s="55"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="88"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="55"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="84"/>
+      <c r="I73" s="87"/>
+      <c r="J73" s="88"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="30"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="89"/>
     </row>
     <row r="75" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="53"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="98"/>
+      <c r="J75" s="86"/>
     </row>
     <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="43"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="55"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="88"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="43"/>
+      <c r="B77" s="91"/>
       <c r="C77" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="26"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="55"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="88"/>
     </row>
     <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="43"/>
+      <c r="B78" s="91"/>
       <c r="C78" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="19"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="55"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="88"/>
     </row>
     <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="43"/>
+      <c r="B79" s="91"/>
       <c r="C79" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D79" s="18"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="55"/>
+      <c r="E79" s="94"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="88"/>
     </row>
     <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="43"/>
+      <c r="B80" s="91"/>
       <c r="C80" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="18"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="55"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="88"/>
     </row>
     <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="43"/>
+      <c r="B81" s="91"/>
       <c r="C81" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="47"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="55"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="88"/>
     </row>
     <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="43"/>
+      <c r="B82" s="91"/>
       <c r="C82" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="18"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="55"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="99"/>
+      <c r="J82" s="88"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="43"/>
+      <c r="B83" s="91"/>
       <c r="C83" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="55"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="88"/>
     </row>
     <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="43"/>
+      <c r="B84" s="91"/>
       <c r="C84" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="55"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="95"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="88"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="43"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="55"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="88"/>
     </row>
     <row r="86" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="43"/>
+      <c r="B86" s="91"/>
       <c r="C86" s="28"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="55"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="99"/>
+      <c r="J86" s="88"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="27"/>
@@ -5913,6 +5910,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="38">
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="E75:G86"/>
+    <mergeCell ref="H75:H86"/>
+    <mergeCell ref="I75:J86"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="E62:G73"/>
+    <mergeCell ref="H62:H73"/>
+    <mergeCell ref="I62:J73"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G60"/>
+    <mergeCell ref="H43:H60"/>
+    <mergeCell ref="I43:J60"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B15:H15"/>
@@ -5924,33 +5948,6 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:K22"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G60"/>
-    <mergeCell ref="H43:H60"/>
-    <mergeCell ref="I43:J60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="E62:G73"/>
-    <mergeCell ref="H62:H73"/>
-    <mergeCell ref="I62:J73"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="E75:G86"/>
-    <mergeCell ref="H75:H86"/>
-    <mergeCell ref="I75:J86"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
+++ b/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shats\IdeaProjects\constructor-reductor\spring\ConstructorApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E377EF41-935F-4827-B997-E74AC86BC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B17B5-C9ED-4590-99BA-5DDB5E82443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП" sheetId="1" r:id="rId1"/>
@@ -1046,6 +1046,156 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1078,156 +1228,6 @@
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1413,8 +1413,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2091418</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1477,8 +1477,8 @@
       <xdr:rowOff>552450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>4082</xdr:rowOff>
     </xdr:to>
@@ -4834,19 +4834,19 @@
   </sheetPr>
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" style="1" customWidth="1"/>
@@ -4890,8 +4890,8 @@
       <c r="I9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
@@ -4903,15 +4903,15 @@
       <c r="I10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
         <v>8</v>
@@ -4933,80 +4933,80 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="65" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="71"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="63" t="str">
+      <c r="I14" s="86" t="str">
         <f>H14</f>
         <v>Юань ¥</v>
       </c>
-      <c r="J14" s="72"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
     </row>
     <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
     </row>
     <row r="17" spans="2:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
     </row>
     <row r="18" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
@@ -5020,17 +5020,17 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
     </row>
     <row r="20" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
@@ -5045,30 +5045,30 @@
       <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
     </row>
     <row r="22" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
     </row>
     <row r="23" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
@@ -5215,11 +5215,11 @@
       <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -5243,10 +5243,10 @@
       <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="46"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
@@ -5313,578 +5313,578 @@
     </row>
     <row r="42" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="73"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="86"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="61"/>
     </row>
     <row r="44" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="74"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="88"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="63"/>
     </row>
     <row r="45" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="74"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="26"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="88"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="63"/>
     </row>
     <row r="46" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="74"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="18"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="88"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="74"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="19"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="88"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="63"/>
     </row>
     <row r="48" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="74"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="19"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="88"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="63"/>
     </row>
     <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="74"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="20"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="88"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="63"/>
     </row>
     <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="74"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="88"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="63"/>
     </row>
     <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="74"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="80"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="88"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="63"/>
     </row>
     <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="74"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="18"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="88"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="63"/>
     </row>
     <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="74"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="18"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="88"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="63"/>
     </row>
     <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="74"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="80"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="88"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="63"/>
     </row>
     <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="74"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="88"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="63"/>
     </row>
     <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="74"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="88"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="63"/>
     </row>
     <row r="57" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="74"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="88"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="63"/>
     </row>
     <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="74"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="88"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="63"/>
     </row>
     <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="74"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="19"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="88"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="63"/>
     </row>
     <row r="60" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="74"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="29"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="88"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="63"/>
     </row>
     <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="33"/>
       <c r="C61" s="34"/>
       <c r="D61" s="30"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
       <c r="H61" s="30"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
     </row>
     <row r="62" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="73"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="86"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="61"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="74"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="88"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="63"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="74"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="88"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="63"/>
     </row>
     <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="74"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="19"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="88"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="63"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="74"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="88"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="63"/>
     </row>
     <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="74"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D67" s="18"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="88"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="73"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="63"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="80"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="88"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="63"/>
     </row>
     <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="74"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="80"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="88"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="63"/>
     </row>
     <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="74"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="87"/>
-      <c r="J70" s="88"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="63"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="74"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="88"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="63"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="74"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="19"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="88"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="63"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="74"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="16"/>
-      <c r="D73" s="105"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="88"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="63"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="33"/>
       <c r="C74" s="34"/>
       <c r="D74" s="30"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
       <c r="H74" s="34"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
     </row>
     <row r="75" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="90"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="86"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="61"/>
     </row>
     <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="91"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="94"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="88"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="63"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="91"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="26"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="88"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="63"/>
     </row>
     <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="91"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="19"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="88"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="63"/>
     </row>
     <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="91"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D79" s="18"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="88"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="63"/>
     </row>
     <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="91"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="18"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="88"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="63"/>
     </row>
     <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="91"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="94"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="88"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="63"/>
     </row>
     <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="91"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="18"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="88"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="63"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="91"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="95"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="99"/>
-      <c r="J83" s="88"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="63"/>
     </row>
     <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="91"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="99"/>
-      <c r="J84" s="88"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="63"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="91"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="19"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="88"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="63"/>
     </row>
     <row r="86" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="91"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="28"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="88"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="63"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="27"/>
@@ -5910,33 +5910,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="E75:G86"/>
-    <mergeCell ref="H75:H86"/>
-    <mergeCell ref="I75:J86"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="E62:G73"/>
-    <mergeCell ref="H62:H73"/>
-    <mergeCell ref="I62:J73"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G60"/>
-    <mergeCell ref="H43:H60"/>
-    <mergeCell ref="I43:J60"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B15:H15"/>
@@ -5948,6 +5921,33 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:K22"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:G14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G60"/>
+    <mergeCell ref="H43:H60"/>
+    <mergeCell ref="I43:J60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="E62:G73"/>
+    <mergeCell ref="H62:H73"/>
+    <mergeCell ref="I62:J73"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="B75:B86"/>
+    <mergeCell ref="E75:G86"/>
+    <mergeCell ref="H75:H86"/>
+    <mergeCell ref="I75:J86"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
+++ b/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shats\IdeaProjects\constructor-reductor\spring\ConstructorApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50B17B5-C9ED-4590-99BA-5DDB5E82443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EFBFB3-FCA2-4803-A4FA-6C062B72E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm_Print_Area" localSheetId="0">КП!$A$1:$K$86</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">КП!$A$1:$K$86</definedName>
+    <definedName name="__xlnm_Print_Area" localSheetId="0">КП!$A$1:$K$85</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">КП!$A$1:$K$85</definedName>
     <definedName name="FFF">NA()</definedName>
     <definedName name="GF">NA()</definedName>
     <definedName name="GFA">NA()</definedName>
@@ -57,7 +57,7 @@
     <definedName name="KKK">NA()</definedName>
     <definedName name="RRR">NA()</definedName>
     <definedName name="SSS">NA()</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">КП!$A$1:$K$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">КП!$A$1:$K$88</definedName>
     <definedName name="Типоразмеры">NA()</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -144,10 +144,6 @@
       </rPr>
       <t xml:space="preserve"> 1227700147840</t>
     </r>
-  </si>
-  <si>
-    <t>Редукторы и мотор-редукторы самых 
-крупных в Китае производителей</t>
   </si>
   <si>
     <t>Менеджер:</t>
@@ -290,15 +286,6 @@
     <t xml:space="preserve">                               </t>
   </si>
   <si>
-    <t>office@extindtrade.com</t>
-  </si>
-  <si>
-    <t>8 (495) 568-02-21</t>
-  </si>
-  <si>
-    <t>vneshpromtorg.com</t>
-  </si>
-  <si>
     <t>pos</t>
   </si>
   <si>
@@ -310,6 +297,9 @@
   <si>
     <t>email</t>
   </si>
+  <si>
+    <t xml:space="preserve">                                                email: office@extindtrade.com, тел. 8 (495) 568-02-21б vneshpromtorg.com</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +310,7 @@
     <numFmt numFmtId="165" formatCode="#,##0\ _₽"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ _₽"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -360,18 +350,6 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -949,9 +927,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -966,268 +944,262 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1409,12 +1381,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2091418</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1432,9 +1404,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1524000"/>
-          <a:ext cx="13554075" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="1510393"/>
+          <a:ext cx="13743214" cy="13607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1469,81 +1441,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4082</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1027" name="Прямая соединительная линия 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F3A0F1-2C74-43D8-92F0-BE6D376DD50E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="0" y="2076450"/>
-          <a:ext cx="14687550" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12600" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1608,13 +1516,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1679,13 +1587,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1750,13 +1658,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1821,13 +1729,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1892,13 +1800,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1963,13 +1871,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2034,13 +1942,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2105,13 +2013,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2176,13 +2084,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2247,13 +2155,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2318,13 +2226,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2389,13 +2297,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2460,13 +2368,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2531,13 +2439,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2602,13 +2510,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2673,13 +2581,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2744,13 +2652,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2815,13 +2723,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2886,13 +2794,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2957,13 +2865,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3028,13 +2936,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3099,13 +3007,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3170,13 +3078,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3241,13 +3149,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3312,13 +3220,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3383,13 +3291,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3454,13 +3362,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3525,13 +3433,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3596,13 +3504,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3667,13 +3575,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3738,13 +3646,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3809,13 +3717,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3880,13 +3788,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3951,13 +3859,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4022,13 +3930,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4093,13 +4001,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4164,13 +4072,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4235,13 +4143,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4306,13 +4214,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4377,13 +4285,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4832,10 +4740,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,248 +4780,260 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+    </row>
     <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10" t="s">
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="C11" s="81" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="88" t="s">
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="31" t="s">
+      <c r="I12" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="84" t="s">
+      <c r="J12" s="71"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="94"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="86" t="str">
-        <f>H14</f>
+      <c r="I13" s="63" t="str">
+        <f>H13</f>
         <v>Юань ¥</v>
       </c>
-      <c r="J14" s="95"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="97" t="s">
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="100"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-    </row>
-    <row r="17" spans="2:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="102" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-    </row>
-    <row r="18" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-    </row>
-    <row r="20" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+    </row>
+    <row r="22" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-    </row>
-    <row r="22" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="36"/>
@@ -5127,775 +5047,756 @@
       <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="38"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-    </row>
-    <row r="28" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-    </row>
-    <row r="29" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="40"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
     </row>
     <row r="33" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="42"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
+      <c r="B33" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
+      <c r="B34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
+      <c r="B35" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
+      <c r="B36" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-    </row>
-    <row r="38" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-    </row>
-    <row r="39" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="40"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39"/>
     </row>
     <row r="40" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="48"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="61"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="73"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="74"/>
+      <c r="C43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="80"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="88"/>
     </row>
     <row r="44" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="49"/>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="74"/>
+      <c r="C44" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="88"/>
+    </row>
+    <row r="45" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="74"/>
+      <c r="C45" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="88"/>
+    </row>
+    <row r="46" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="74"/>
+      <c r="C46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="88"/>
+    </row>
+    <row r="47" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="74"/>
+      <c r="C47" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="88"/>
+    </row>
+    <row r="48" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="74"/>
+      <c r="C48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="88"/>
+    </row>
+    <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="74"/>
+      <c r="C49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="80"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="88"/>
+    </row>
+    <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="74"/>
+      <c r="C50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="80"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="88"/>
+    </row>
+    <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="74"/>
+      <c r="C51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="88"/>
+    </row>
+    <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="74"/>
+      <c r="C52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="88"/>
+    </row>
+    <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="74"/>
+      <c r="C53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="80"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="88"/>
+    </row>
+    <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="74"/>
+      <c r="C54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="88"/>
+    </row>
+    <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="74"/>
+      <c r="C55" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="88"/>
+    </row>
+    <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="74"/>
+      <c r="C56" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="88"/>
+    </row>
+    <row r="57" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="74"/>
+      <c r="C57" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="88"/>
+    </row>
+    <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="74"/>
+      <c r="C58" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="88"/>
+    </row>
+    <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="74"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="88"/>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+    </row>
+    <row r="61" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="73"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="86"/>
+    </row>
+    <row r="62" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="74"/>
+      <c r="C62" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E62" s="80"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="88"/>
+    </row>
+    <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="74"/>
+      <c r="C63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="84"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="88"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="74"/>
+      <c r="C64" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="88"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="74"/>
+      <c r="C65" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="16"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="88"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="74"/>
+      <c r="C66" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="84"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="88"/>
+    </row>
+    <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="74"/>
+      <c r="C67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="80"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="84"/>
+      <c r="I67" s="87"/>
+      <c r="J67" s="88"/>
+    </row>
+    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="74"/>
+      <c r="C68" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="80"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="88"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="74"/>
+      <c r="C69" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="88"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="74"/>
+      <c r="C70" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="84"/>
+      <c r="I70" s="87"/>
+      <c r="J70" s="88"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="74"/>
+      <c r="C71" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="88"/>
+    </row>
+    <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="74"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="82"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="88"/>
+    </row>
+    <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="89"/>
+    </row>
+    <row r="74" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="90"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="86"/>
+    </row>
+    <row r="75" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="91"/>
+      <c r="C75" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="94"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="88"/>
+    </row>
+    <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="91"/>
+      <c r="C76" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="63"/>
-    </row>
-    <row r="45" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="49"/>
-      <c r="C45" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="63"/>
-    </row>
-    <row r="46" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
-      <c r="C46" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="63"/>
-    </row>
-    <row r="47" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
-      <c r="C47" s="16" t="s">
+      <c r="D76" s="24"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="88"/>
+    </row>
+    <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="91"/>
+      <c r="C77" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="63"/>
-    </row>
-    <row r="48" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-      <c r="C48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="63"/>
-    </row>
-    <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="63"/>
-    </row>
-    <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
-      <c r="C50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="63"/>
-    </row>
-    <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="49"/>
-      <c r="C51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="D77" s="17"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="88"/>
+    </row>
+    <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="91"/>
+      <c r="C78" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="63"/>
-    </row>
-    <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="49"/>
-      <c r="C52" s="16" t="s">
+      <c r="D78" s="16"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="88"/>
+    </row>
+    <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="91"/>
+      <c r="C79" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="63"/>
-    </row>
-    <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
-      <c r="C53" s="16" t="s">
+      <c r="D79" s="16"/>
+      <c r="E79" s="94"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="88"/>
+    </row>
+    <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="91"/>
+      <c r="C80" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="63"/>
-    </row>
-    <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="49"/>
-      <c r="C54" s="16" t="s">
+      <c r="D80" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="E80" s="94"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="88"/>
+    </row>
+    <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="91"/>
+      <c r="C81" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="63"/>
-    </row>
-    <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
-      <c r="C55" s="16" t="s">
+      <c r="D81" s="16"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="88"/>
+    </row>
+    <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="91"/>
+      <c r="C82" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="63"/>
-    </row>
-    <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
-      <c r="C56" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="63"/>
-    </row>
-    <row r="57" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
-      <c r="C57" s="16" t="s">
+      <c r="D82" s="16"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="99"/>
+      <c r="J82" s="88"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="91"/>
+      <c r="C83" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="63"/>
-    </row>
-    <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
-      <c r="C58" s="16" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="88"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="91"/>
+      <c r="C84" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="63"/>
-    </row>
-    <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
-      <c r="C59" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="63"/>
-    </row>
-    <row r="60" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="49"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="63"/>
-    </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-    </row>
-    <row r="62" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="48"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="61"/>
-    </row>
-    <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="49"/>
-      <c r="C63" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="72"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="63"/>
-    </row>
-    <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
-      <c r="C64" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="63"/>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="49"/>
-      <c r="C65" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="63"/>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="49"/>
-      <c r="C66" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="63"/>
-    </row>
-    <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="49"/>
-      <c r="C67" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="63"/>
-    </row>
-    <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
-      <c r="C68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="72"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="63"/>
-    </row>
-    <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="49"/>
-      <c r="C69" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="72"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="63"/>
-    </row>
-    <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="49"/>
-      <c r="C70" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="63"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="49"/>
-      <c r="C71" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="63"/>
-    </row>
-    <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="49"/>
-      <c r="C72" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="63"/>
-    </row>
-    <row r="73" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="63"/>
-    </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="33"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="64"/>
-    </row>
-    <row r="75" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="50"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="61"/>
-    </row>
-    <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="51"/>
-      <c r="C76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="55"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="63"/>
-    </row>
-    <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="51"/>
-      <c r="C77" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="63"/>
-    </row>
-    <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="51"/>
-      <c r="C78" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="63"/>
-    </row>
-    <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="51"/>
-      <c r="C79" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="63"/>
-    </row>
-    <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="51"/>
-      <c r="C80" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="63"/>
-    </row>
-    <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="51"/>
-      <c r="C81" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" s="55"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="63"/>
-    </row>
-    <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="51"/>
-      <c r="C82" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="63"/>
-    </row>
-    <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="51"/>
-      <c r="C83" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="63"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="51"/>
-      <c r="C84" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="63"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="51"/>
-      <c r="C85" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="63"/>
-    </row>
-    <row r="86" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="51"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="95"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="88"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="91"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="88"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="25"/>
       <c r="C86" s="28"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="63"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="27"/>
-      <c r="C87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-    </row>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+    </row>
+    <row r="97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5906,78 +5807,74 @@
     <row r="105" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B61:B72"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="E74:G85"/>
+    <mergeCell ref="H74:H85"/>
+    <mergeCell ref="I74:J85"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="E61:G72"/>
+    <mergeCell ref="H61:H72"/>
+    <mergeCell ref="I61:J72"/>
+    <mergeCell ref="B42:B59"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G59"/>
+    <mergeCell ref="H42:H59"/>
+    <mergeCell ref="I42:J59"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B20:K20"/>
     <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B43:B60"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G60"/>
-    <mergeCell ref="H43:H60"/>
-    <mergeCell ref="I43:J60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="E62:G73"/>
-    <mergeCell ref="H62:H73"/>
-    <mergeCell ref="I62:J73"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="B75:B86"/>
-    <mergeCell ref="E75:G86"/>
-    <mergeCell ref="H75:H86"/>
-    <mergeCell ref="I75:J86"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Руб.₽,Доллар $,Евро €,Юань ¥,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D55 D53 D70:D73 B35" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D81 D54" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D54 D52 D69:D72 B34" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D80 D53" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D47 D51:D52 D65 D69 D78:D80 D82" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D46 D50:D51 D64 D68 D77:D79 D81" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D50 D68" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D49 D67" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" xr:uid="{D16D82B0-871C-4F0B-8E76-B9CB92CF0390}"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="3" max="1048575" man="1"/>
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
+++ b/spring/ConstructorApp/src/main/resources/reportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shats\IdeaProjects\constructor-reductor\spring\ConstructorApp\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EFBFB3-FCA2-4803-A4FA-6C062B72E32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBB8DA-F456-4D30-B7CC-E4FF67F94C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="2895" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КП" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <t>email</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                email: office@extindtrade.com, тел. 8 (495) 568-02-21б vneshpromtorg.com</t>
+    <t xml:space="preserve">                                                email: office@extindtrade.com, тел. 8 (495) 568-02-21, vneshpromtorg.com</t>
   </si>
 </sst>
 </file>
@@ -1024,6 +1024,150 @@
     <xf numFmtId="49" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1056,150 +1200,6 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4742,8 +4742,8 @@
   </sheetPr>
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:D42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,8 +4796,8 @@
       <c r="I8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
@@ -4809,15 +4809,15 @@
       <c r="I9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
         <v>7</v>
@@ -4839,80 +4839,80 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="65" t="s">
+      <c r="D12" s="83"/>
+      <c r="E12" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
       <c r="H12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="71"/>
+      <c r="J12" s="92"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="63" t="str">
+      <c r="I13" s="84" t="str">
         <f>H13</f>
         <v>Юань ¥</v>
       </c>
-      <c r="J13" s="72"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
     </row>
     <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
@@ -4926,17 +4926,17 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
     </row>
     <row r="19" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
@@ -4951,30 +4951,30 @@
       <c r="K19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
     </row>
     <row r="21" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
     </row>
     <row r="22" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34" t="s">
@@ -5121,11 +5121,11 @@
       <c r="K32" s="36"/>
     </row>
     <row r="33" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -5149,10 +5149,10 @@
       <c r="K34" s="36"/>
     </row>
     <row r="35" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="46"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
@@ -5213,578 +5213,578 @@
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="59"/>
     </row>
     <row r="43" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="74"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="88"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="61"/>
     </row>
     <row r="44" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="74"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="24"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="88"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="61"/>
     </row>
     <row r="45" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="74"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="16"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="88"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="61"/>
     </row>
     <row r="46" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="74"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="88"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="61"/>
     </row>
     <row r="47" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="74"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="88"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="61"/>
     </row>
     <row r="48" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="74"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="18"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="88"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="61"/>
     </row>
     <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="74"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="88"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="61"/>
     </row>
     <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="74"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="88"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="61"/>
     </row>
     <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="74"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="88"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="61"/>
     </row>
     <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="74"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="16"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="88"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="61"/>
     </row>
     <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="74"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="80"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="88"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="61"/>
     </row>
     <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="74"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="16"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="88"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="61"/>
     </row>
     <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="74"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="16"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="88"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="61"/>
     </row>
     <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="74"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="16"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="88"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="61"/>
     </row>
     <row r="57" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="74"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="88"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="61"/>
     </row>
     <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="74"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="17"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="88"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="61"/>
     </row>
     <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="74"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="27"/>
       <c r="D59" s="44"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="88"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="61"/>
     </row>
     <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="31"/>
       <c r="C60" s="32"/>
       <c r="D60" s="28"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
       <c r="H60" s="28"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
     </row>
     <row r="61" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="73"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="86"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="59"/>
     </row>
     <row r="62" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="74"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="80"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="88"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="61"/>
     </row>
     <row r="63" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="74"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="16"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="88"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="61"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="74"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="88"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="61"/>
     </row>
     <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="74"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="16"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="88"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="61"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="74"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="16"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="88"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="61"/>
     </row>
     <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="74"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="80"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="88"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="61"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="80"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="88"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="61"/>
     </row>
     <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="74"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="16"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="88"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="61"/>
     </row>
     <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="74"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="16"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="87"/>
-      <c r="J70" s="88"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="61"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="74"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="88"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="61"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="74"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="14"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="88"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="61"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="31"/>
       <c r="C73" s="32"/>
       <c r="D73" s="28"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="100"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="32"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
     </row>
     <row r="74" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="90"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="104"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="86"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="59"/>
     </row>
     <row r="75" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="91"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="94"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="95"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="88"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="61"/>
     </row>
     <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="91"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="24"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="88"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="61"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="91"/>
+      <c r="B77" s="49"/>
       <c r="C77" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="94"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="88"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="61"/>
     </row>
     <row r="78" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="91"/>
+      <c r="B78" s="49"/>
       <c r="C78" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="16"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="88"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="61"/>
     </row>
     <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="91"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D79" s="16"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="95"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="88"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="61"/>
     </row>
     <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="91"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="94"/>
-      <c r="F80" s="81"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="99"/>
-      <c r="J80" s="88"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="61"/>
     </row>
     <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="91"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D81" s="16"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="88"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="61"/>
     </row>
     <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="91"/>
+      <c r="B82" s="49"/>
       <c r="C82" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="16"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="88"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="61"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="91"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D83" s="16"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="81"/>
-      <c r="G83" s="95"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="99"/>
-      <c r="J83" s="88"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="61"/>
     </row>
     <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="91"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="81"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="99"/>
-      <c r="J84" s="88"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="61"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="91"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="26"/>
       <c r="D85" s="45"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="88"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="61"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="25"/>
@@ -5810,33 +5810,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="B61:B72"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="E74:G85"/>
-    <mergeCell ref="H74:H85"/>
-    <mergeCell ref="I74:J85"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="E61:G72"/>
-    <mergeCell ref="H61:H72"/>
-    <mergeCell ref="I61:J72"/>
-    <mergeCell ref="B42:B59"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G59"/>
-    <mergeCell ref="H42:H59"/>
-    <mergeCell ref="I42:J59"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B14:H14"/>
@@ -5848,6 +5821,33 @@
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="B21:K21"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B42:B59"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G59"/>
+    <mergeCell ref="H42:H59"/>
+    <mergeCell ref="I42:J59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="E61:G72"/>
+    <mergeCell ref="H61:H72"/>
+    <mergeCell ref="I61:J72"/>
+    <mergeCell ref="B61:B72"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="E74:G85"/>
+    <mergeCell ref="H74:H85"/>
+    <mergeCell ref="I74:J85"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13" xr:uid="{00000000-0002-0000-0000-000000000000}">
